--- a/results/I3_N5_M2_T15_C200_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C200_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>293.2018841340594</v>
+        <v>485.4218841340303</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.07000000002909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.71</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000146</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000895</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.5050000000103</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000893</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000921</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>188.0750000000124</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>196.6550000000107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>200.4400000000014</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>203.0950000000131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>195.5150000000144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000001167</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000994</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000001237</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000001365</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>111.5650000000117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>120.73000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>111.1650000000008</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>116.5300000000124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>116.9850000000137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8400000000144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6950000000087</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.68000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4150000000086</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6050000000089</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.8400000000144</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.6950000000087</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.68000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.4150000000086</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.6050000000089</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>188.0750000000124</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>196.6550000000107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>200.4400000000014</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>203.0950000000131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>195.5150000000144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4400000000014437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.095000000013101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,28 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
